--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EF09CB-2638-487A-AF86-43152D8AE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,176 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+  <si>
+    <t>Блок</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Экран загрузки</t>
+  </si>
+  <si>
+    <t>Отображение элементов загрузки</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Окно авторизации</t>
+  </si>
+  <si>
+    <t>Топбар</t>
+  </si>
+  <si>
+    <t>Раскрытие бургерного меню</t>
+  </si>
+  <si>
+    <t>Переход в меню на вкладку News</t>
+  </si>
+  <si>
+    <t>Переход в меню на вкладку Claims</t>
+  </si>
+  <si>
+    <t>Переход в меню на вкладку About</t>
+  </si>
+  <si>
+    <t>Не кликабельный логотип</t>
+  </si>
+  <si>
+    <t>Переход в раздел цитат</t>
+  </si>
+  <si>
+    <t>Открытие меню пользователя</t>
+  </si>
+  <si>
+    <t>Основное окно</t>
+  </si>
+  <si>
+    <t>Сворачивание/разворачивание новостей по тапу</t>
+  </si>
+  <si>
+    <t>Сворачивание всех заявок</t>
+  </si>
+  <si>
+    <t>Открытие раздела новости из основного окна</t>
+  </si>
+  <si>
+    <t>Открытие заявки по тапу</t>
+  </si>
+  <si>
+    <t>Редактирование заявки</t>
+  </si>
+  <si>
+    <t>Редактирование комментария</t>
+  </si>
+  <si>
+    <t>Добавление коментария</t>
+  </si>
+  <si>
+    <t>Взятие в работу</t>
+  </si>
+  <si>
+    <t>Возврат в основное окно</t>
+  </si>
+  <si>
+    <t>Выход из работы</t>
+  </si>
+  <si>
+    <t>Переход в раздел заявок</t>
+  </si>
+  <si>
+    <t>Добавление новой заявки</t>
+  </si>
+  <si>
+    <t>Раздел About</t>
+  </si>
+  <si>
+    <t>Ссылка Privacy</t>
+  </si>
+  <si>
+    <t>Ссылка Terms</t>
+  </si>
+  <si>
+    <t>Отображение версии</t>
+  </si>
+  <si>
+    <t>Раздел News</t>
+  </si>
+  <si>
+    <t>Раздел Claims</t>
+  </si>
+  <si>
+    <t>Кнопка пользователя</t>
+  </si>
+  <si>
+    <t>Сортировка</t>
+  </si>
+  <si>
+    <t>Фильтрация</t>
+  </si>
+  <si>
+    <t>Открытие по тапу</t>
+  </si>
+  <si>
+    <t>Контрольная панель</t>
+  </si>
+  <si>
+    <t>Открытие по тапу к контрольной панели</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Редактирование </t>
+  </si>
+  <si>
+    <t>Изменение статуса новости и ее отображение в ленте</t>
+  </si>
+  <si>
+    <t>Возврат в окно заявок</t>
+  </si>
+  <si>
+    <t>Выход из профиля</t>
+  </si>
+  <si>
+    <t>Пройдено</t>
+  </si>
+  <si>
+    <t>Форма авторизации</t>
+  </si>
+  <si>
+    <t>Не пройдено</t>
+  </si>
+  <si>
+    <t>Возврат назад</t>
+  </si>
+  <si>
+    <t>Сворачивание/Разворачивание всех новостей</t>
+  </si>
+  <si>
+    <t>Добавление новости</t>
+  </si>
+  <si>
+    <t>Закрытие заявки</t>
+  </si>
+  <si>
+    <t>Раздел цитат</t>
+  </si>
+  <si>
+    <t>Сворачивание/разворачивание цитат</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +201,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +247,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="20% — акцент2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% — акцент6" xfId="3" builtinId="50"/>
+    <cellStyle name="Заголовок 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +592,626 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>35</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>36</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>39</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>40</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>46</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>47</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>49</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="B4:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EF09CB-2638-487A-AF86-43152D8AE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2796A7-E34C-4839-A7D8-D5FADC8528AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10215" yWindow="1410" windowWidth="23580" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Раздел Claims</t>
   </si>
   <si>
-    <t>Кнопка пользователя</t>
-  </si>
-  <si>
     <t>Сортировка</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Сворачивание/разворачивание цитат</t>
+  </si>
+  <si>
+    <t>Меню пользователя</t>
   </si>
 </sst>
 </file>
@@ -298,9 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,6 +306,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,158 +643,158 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -802,378 +802,378 @@
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>32</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>36</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,27 +1181,27 @@
         <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>49</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\QA-Finale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2796A7-E34C-4839-A7D8-D5FADC8528AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAED197-48A6-4DD3-95A0-7B5DEA3FF0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="1410" windowWidth="23580" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>Блок</t>
   </si>
@@ -187,18 +187,35 @@
   </si>
   <si>
     <t>Меню пользователя</t>
+  </si>
+  <si>
+    <t>Результат автоматического тестирования</t>
+  </si>
+  <si>
+    <t>Ссылка присутствует, но не работает</t>
+  </si>
+  <si>
+    <t>Ссылка присутствует</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,19 +291,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -295,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +326,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -595,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,9 +631,10 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="52.85546875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -619,6 +646,9 @@
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -634,6 +664,9 @@
       <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -648,6 +681,9 @@
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -662,6 +698,9 @@
       <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -674,6 +713,9 @@
       <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -686,6 +728,9 @@
       <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -698,6 +743,9 @@
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -710,6 +758,9 @@
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -722,6 +773,9 @@
       <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -734,6 +788,9 @@
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -748,6 +805,9 @@
       <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -760,6 +820,9 @@
       <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -772,6 +835,9 @@
       <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -784,6 +850,9 @@
       <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -796,6 +865,9 @@
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,8 +881,11 @@
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -821,8 +896,11 @@
       <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -833,8 +911,11 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -845,8 +926,11 @@
       <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -857,8 +941,11 @@
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -869,8 +956,11 @@
       <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -881,8 +971,11 @@
       <c r="D22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -893,8 +986,11 @@
       <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -904,11 +1000,14 @@
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -916,11 +1015,14 @@
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -931,8 +1033,11 @@
       <c r="D26" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -943,8 +1048,11 @@
       <c r="D27" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -957,8 +1065,11 @@
       <c r="D28" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -969,8 +1080,11 @@
       <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -981,8 +1095,11 @@
       <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -993,8 +1110,11 @@
       <c r="D31" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -1005,8 +1125,11 @@
       <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -1017,8 +1140,11 @@
       <c r="D33" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -1029,8 +1155,11 @@
       <c r="D34" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -1041,8 +1170,11 @@
       <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -1053,8 +1185,11 @@
       <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -1067,8 +1202,11 @@
       <c r="D37" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -1079,8 +1217,11 @@
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -1091,8 +1232,11 @@
       <c r="D39" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -1103,8 +1247,11 @@
       <c r="D40" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -1115,8 +1262,11 @@
       <c r="D41" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -1127,8 +1277,11 @@
       <c r="D42" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -1139,8 +1292,11 @@
       <c r="D43" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -1151,8 +1307,11 @@
       <c r="D44" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -1163,8 +1322,11 @@
       <c r="D45" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -1175,8 +1337,11 @@
       <c r="D46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -1189,8 +1354,11 @@
       <c r="D47" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>49</v>
       </c>
@@ -1201,6 +1369,9 @@
         <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>44</v>
       </c>
     </row>
